--- a/document/data17-02-25.xlsx
+++ b/document/data17-02-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ExcelDataSync\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8835DA-AC60-438F-8316-598955CFF63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05825074-142A-443F-A7DF-CE8773F1C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2940" windowWidth="20775" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -9807,7 +9807,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9827,8 +9827,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9848,7 +9853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9965,43 +9976,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -10051,6 +10062,26 @@
         </right>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -10065,7 +10096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla13" displayName="Tabla13" ref="A1:Z540" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla13" displayName="Tabla13" ref="A1:Z540" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:Z540" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CODIGO"/>
@@ -10389,8 +10420,8 @@
   </sheetPr>
   <dimension ref="A1:Z540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,11 +10439,11 @@
     <col min="11" max="11" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -10424,82 +10455,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10614,7 +10645,7 @@
       <c r="N3" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -10865,7 +10896,7 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="1"/>

--- a/document/data17-02-25.xlsx
+++ b/document/data17-02-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ExcelDataSync\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05825074-142A-443F-A7DF-CE8773F1C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A7FD3-01FB-4255-8D9D-C4ADDC26FC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2940" windowWidth="20775" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -9807,7 +9807,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9823,17 +9823,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9847,19 +9841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9934,7 +9916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9975,38 +9957,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10420,8 +10396,8 @@
   </sheetPr>
   <dimension ref="A1:Z540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10439,11 +10415,11 @@
     <col min="11" max="11" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -10455,82 +10431,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10645,7 +10621,7 @@
       <c r="N3" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -10896,7 +10872,7 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="1"/>
